--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7805,6 +7805,126 @@
       <c r="F314" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>324.4636842105263</v>
+      </c>
+      <c r="C315" t="n">
+        <v>324.08</v>
+      </c>
+      <c r="D315" t="n">
+        <v>331.5971428571428</v>
+      </c>
+      <c r="E315" t="n">
+        <v>351.2</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>320.7442105263158</v>
+      </c>
+      <c r="C316" t="n">
+        <v>321.1566666666666</v>
+      </c>
+      <c r="D316" t="n">
+        <v>328.3971428571429</v>
+      </c>
+      <c r="E316" t="n">
+        <v>338.45</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>334.4163157894737</v>
+      </c>
+      <c r="C317" t="n">
+        <v>332.7966666666666</v>
+      </c>
+      <c r="D317" t="n">
+        <v>338.6471428571429</v>
+      </c>
+      <c r="E317" t="n">
+        <v>360.63</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>323.8810526315789</v>
+      </c>
+      <c r="C318" t="n">
+        <v>323.55</v>
+      </c>
+      <c r="D318" t="n">
+        <v>328.74</v>
+      </c>
+      <c r="E318" t="n">
+        <v>346.95</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>329.5415789473685</v>
+      </c>
+      <c r="C319" t="n">
+        <v>326.0033333333333</v>
+      </c>
+      <c r="D319" t="n">
+        <v>328.8985714285715</v>
+      </c>
+      <c r="E319" t="n">
+        <v>339.72</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7819,7 +7939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11087,6 +11207,56 @@
       </c>
       <c r="B326" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -11255,28 +11425,28 @@
         <v>0.1038</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1267583368910904</v>
+        <v>0.1301365283568142</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0118310394037715</v>
+        <v>0.01285866255491719</v>
       </c>
       <c r="M2" t="n">
-        <v>6.270480628569622</v>
+        <v>6.233817268847641</v>
       </c>
       <c r="N2" t="n">
-        <v>65.81570593192485</v>
+        <v>65.126716388815</v>
       </c>
       <c r="O2" t="n">
-        <v>8.112687959728566</v>
+        <v>8.07011253879492</v>
       </c>
       <c r="P2" t="n">
-        <v>322.4267364340434</v>
+        <v>322.392543516144</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -11332,28 +11502,28 @@
         <v>0.0776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1556001544209952</v>
+        <v>0.1600769701666669</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01872461072432841</v>
+        <v>0.02044869088142587</v>
       </c>
       <c r="M3" t="n">
-        <v>6.213384553908397</v>
+        <v>6.156673920131549</v>
       </c>
       <c r="N3" t="n">
-        <v>62.88891779403112</v>
+        <v>62.1353261450931</v>
       </c>
       <c r="O3" t="n">
-        <v>7.930253324707295</v>
+        <v>7.882596408867645</v>
       </c>
       <c r="P3" t="n">
-        <v>320.2719203035716</v>
+        <v>320.2270367941703</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -11409,28 +11579,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1670735053766343</v>
+        <v>0.1725252213746449</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K4" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02216609859672936</v>
+        <v>0.02439419320769787</v>
       </c>
       <c r="M4" t="n">
-        <v>6.094161323748467</v>
+        <v>6.038931071263427</v>
       </c>
       <c r="N4" t="n">
-        <v>61.26002183886171</v>
+        <v>60.51963022071629</v>
       </c>
       <c r="O4" t="n">
-        <v>7.826878166859486</v>
+        <v>7.779436369089749</v>
       </c>
       <c r="P4" t="n">
-        <v>325.4589730250175</v>
+        <v>325.404728253517</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -11486,28 +11656,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1157190107021485</v>
+        <v>0.1192445639332535</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00700625243494124</v>
+        <v>0.007637689366320366</v>
       </c>
       <c r="M5" t="n">
-        <v>7.72540457202813</v>
+        <v>7.708046973187305</v>
       </c>
       <c r="N5" t="n">
-        <v>97.36600622670909</v>
+        <v>96.82500342486532</v>
       </c>
       <c r="O5" t="n">
-        <v>9.867421457843436</v>
+        <v>9.839969686176138</v>
       </c>
       <c r="P5" t="n">
-        <v>343.4494112978314</v>
+        <v>343.4150020373687</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -11544,7 +11714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21256,6 +21426,166 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-35.459505036655585,174.4330719403914</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-35.460158027289985,174.43347736413742</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-35.4607780163462,174.43395993805913</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-35.46134752560776,174.4345605283421</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-35.459520570160436,174.43303562081618</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-35.46017023596686,174.4334488184566</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-35.46079138055097,174.43392869061464</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-35.46140077403765,174.4344360261981</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-35.459463471784105,174.43316912486452</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-35.46012162395562,174.4335624803399</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-35.46074857330476,174.43402878004804</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-35.461308142570935,174.43465261099652</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-35.45950746987969,174.43306625116497</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-35.4601602407222,174.43347218880942</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-35.460789948672264,174.4339320385556</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-35.46136527509829,174.43451902764605</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-35.4594838300083,174.4331215245288</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-35.46014999489581,174.43349614504237</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-35.46078928642832,174.43393358697827</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-35.46139547008202,174.43444842759567</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -11270,7 +11270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11361,35 +11361,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -11448,27 +11453,28 @@
       <c r="P2" t="n">
         <v>322.392543516144</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.42990359360093 -35.460860042697995, 174.43894350311038 -35.45699361023928)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4299035936009</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.46086004269799</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4389435031104</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.45699361023928</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4344235483557</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.45892682646864</v>
       </c>
     </row>
@@ -11525,27 +11531,28 @@
       <c r="P3" t="n">
         <v>320.2270367941703</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.43031274352177 -35.46151143810828, 174.4393526858887 -35.45764499609618)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4303127435218</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.46151143810828</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4393526858887</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.45764499609618</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4348327147052</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.45957821710223</v>
       </c>
     </row>
@@ -11602,27 +11609,28 @@
       <c r="P4" t="n">
         <v>325.404728253517</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.43072189344264 -35.46216282824414, 174.4397618686671 -35.45829637667815)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4307218934426</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.46216282824414</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4397618686671</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.45829637667815</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4352418810549</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.46022960246114</v>
       </c>
     </row>
@@ -11679,27 +11687,28 @@
       <c r="P5" t="n">
         <v>343.4150020373687</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.43113104336345 -35.46281421310555, 174.44017105144562 -35.45894775198511)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4311310433635</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.46281421310555</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4401710514456</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.45894775198511</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4356510474045</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.46088098254533</v>
       </c>
     </row>

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7923,6 +7923,78 @@
         <v>339.72</v>
       </c>
       <c r="F319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>328.9278947368421</v>
+      </c>
+      <c r="C320" t="n">
+        <v>325.9766666666667</v>
+      </c>
+      <c r="D320" t="n">
+        <v>332.5085714285714</v>
+      </c>
+      <c r="E320" t="n">
+        <v>340.49</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>337.9447368421053</v>
+      </c>
+      <c r="C321" t="n">
+        <v>331.4066666666666</v>
+      </c>
+      <c r="D321" t="n">
+        <v>328.0342857142857</v>
+      </c>
+      <c r="E321" t="n">
+        <v>320.99</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>305.3505263157895</v>
+      </c>
+      <c r="C322" t="n">
+        <v>300.7666666666667</v>
+      </c>
+      <c r="D322" t="n">
+        <v>315.9357142857143</v>
+      </c>
+      <c r="E322" t="n">
+        <v>323.75</v>
+      </c>
+      <c r="F322" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7939,7 +8011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11257,6 +11329,36 @@
       </c>
       <c r="B331" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -11430,28 +11532,28 @@
         <v>0.1038</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1301365283568142</v>
+        <v>0.1266225579659598</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01285866255491719</v>
+        <v>0.01210598289718701</v>
       </c>
       <c r="M2" t="n">
-        <v>6.233817268847641</v>
+        <v>6.290728280853607</v>
       </c>
       <c r="N2" t="n">
-        <v>65.126716388815</v>
+        <v>66.36696812994217</v>
       </c>
       <c r="O2" t="n">
-        <v>8.07011253879492</v>
+        <v>8.146592424439937</v>
       </c>
       <c r="P2" t="n">
-        <v>322.392543516144</v>
+        <v>322.4289016460999</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11508,28 +11610,28 @@
         <v>0.0776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1600769701666669</v>
+        <v>0.1498572511402283</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02044869088142587</v>
+        <v>0.01780147827450773</v>
       </c>
       <c r="M3" t="n">
-        <v>6.156673920131549</v>
+        <v>6.205723435955091</v>
       </c>
       <c r="N3" t="n">
-        <v>62.1353261450931</v>
+        <v>63.50693462794106</v>
       </c>
       <c r="O3" t="n">
-        <v>7.882596408867645</v>
+        <v>7.969123830631638</v>
       </c>
       <c r="P3" t="n">
-        <v>320.2270367941703</v>
+        <v>320.3310118020548</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11586,28 +11688,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1725252213746449</v>
+        <v>0.1634346114074885</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02439419320769787</v>
+        <v>0.02219802298668172</v>
       </c>
       <c r="M4" t="n">
-        <v>6.038931071263427</v>
+        <v>6.038680049433821</v>
       </c>
       <c r="N4" t="n">
-        <v>60.51963022071629</v>
+        <v>60.58700000821768</v>
       </c>
       <c r="O4" t="n">
-        <v>7.779436369089749</v>
+        <v>7.783765156286363</v>
       </c>
       <c r="P4" t="n">
-        <v>325.404728253517</v>
+        <v>325.4966213254693</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11664,28 +11766,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1192445639332535</v>
+        <v>0.08103028501293352</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007637689366320366</v>
+        <v>0.00347605065518175</v>
       </c>
       <c r="M5" t="n">
-        <v>7.708046973187305</v>
+        <v>7.829625057385647</v>
       </c>
       <c r="N5" t="n">
-        <v>96.82500342486532</v>
+        <v>99.89570650265108</v>
       </c>
       <c r="O5" t="n">
-        <v>9.839969686176138</v>
+        <v>9.994783964781384</v>
       </c>
       <c r="P5" t="n">
-        <v>343.4150020373687</v>
+        <v>343.7952654199261</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11723,7 +11825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21595,6 +21697,102 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-35.45948639291883,174.4331155320857</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-35.460150106263505,174.43349588464855</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-35.46077420993286,174.43396883799898</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-35.46139225429728,174.43445594655242</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-35.45944873612866,174.4332035788172</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-35.46012742900369,174.43354890732164</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-35.460792895955834,174.43392514737698</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-35.46147369286112,174.4342655312258</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-35.45958485813981,174.43288530583018</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-35.46025539026109,174.43324971452915</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-35.460843423314394,174.4338070068274</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-35.461462166189854,174.43429248234196</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,6 +7995,102 @@
         <v>323.75</v>
       </c>
       <c r="F322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>335.7742105263158</v>
+      </c>
+      <c r="C323" t="n">
+        <v>321.1833333333333</v>
+      </c>
+      <c r="D323" t="n">
+        <v>325.0428571428571</v>
+      </c>
+      <c r="E323" t="n">
+        <v>336.54</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>322.9484210526315</v>
+      </c>
+      <c r="C324" t="n">
+        <v>313.2566666666667</v>
+      </c>
+      <c r="D324" t="n">
+        <v>324.1414285714285</v>
+      </c>
+      <c r="E324" t="n">
+        <v>342.41</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>334.9526315789473</v>
+      </c>
+      <c r="C325" t="n">
+        <v>324.7333333333333</v>
+      </c>
+      <c r="D325" t="n">
+        <v>325.4457142857143</v>
+      </c>
+      <c r="E325" t="n">
+        <v>339.46</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>319.7557894736842</v>
+      </c>
+      <c r="C326" t="n">
+        <v>311.7033333333334</v>
+      </c>
+      <c r="D326" t="n">
+        <v>328.1957142857143</v>
+      </c>
+      <c r="E326" t="n">
+        <v>336.26</v>
+      </c>
+      <c r="F326" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8011,7 +8107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B334"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11359,6 +11455,46 @@
       </c>
       <c r="B334" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -11532,28 +11668,28 @@
         <v>0.1038</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1266225579659598</v>
+        <v>0.1337112210273735</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01210598289718701</v>
+        <v>0.01372059574278939</v>
       </c>
       <c r="M2" t="n">
-        <v>6.290728280853607</v>
+        <v>6.297971895315857</v>
       </c>
       <c r="N2" t="n">
-        <v>66.36696812994217</v>
+        <v>66.25006390556814</v>
       </c>
       <c r="O2" t="n">
-        <v>8.146592424439937</v>
+        <v>8.13941422373675</v>
       </c>
       <c r="P2" t="n">
-        <v>322.4289016460999</v>
+        <v>322.3564244848886</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11610,28 +11746,28 @@
         <v>0.0776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1498572511402283</v>
+        <v>0.1327482213349118</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01780147827450773</v>
+        <v>0.01422870262502429</v>
       </c>
       <c r="M3" t="n">
-        <v>6.205723435955091</v>
+        <v>6.22017728835524</v>
       </c>
       <c r="N3" t="n">
-        <v>63.50693462794106</v>
+        <v>63.58348260967816</v>
       </c>
       <c r="O3" t="n">
-        <v>7.969123830631638</v>
+        <v>7.973925169555967</v>
       </c>
       <c r="P3" t="n">
-        <v>320.3310118020548</v>
+        <v>320.5051208028631</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11688,28 +11824,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1634346114074885</v>
+        <v>0.1526858952999312</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02219802298668172</v>
+        <v>0.01992690495646743</v>
       </c>
       <c r="M4" t="n">
-        <v>6.038680049433821</v>
+        <v>6.008517062683634</v>
       </c>
       <c r="N4" t="n">
-        <v>60.58700000821768</v>
+        <v>60.02092802860716</v>
       </c>
       <c r="O4" t="n">
-        <v>7.783765156286363</v>
+        <v>7.747317473074609</v>
       </c>
       <c r="P4" t="n">
-        <v>325.4966213254693</v>
+        <v>325.6054255629501</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11766,28 +11902,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08103028501293352</v>
+        <v>0.06134894606495971</v>
       </c>
       <c r="J5" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00347605065518175</v>
+        <v>0.002040088868378587</v>
       </c>
       <c r="M5" t="n">
-        <v>7.829625057385647</v>
+        <v>7.824281385342451</v>
       </c>
       <c r="N5" t="n">
-        <v>99.89570650265108</v>
+        <v>99.29060030228617</v>
       </c>
       <c r="O5" t="n">
-        <v>9.994783964781384</v>
+        <v>9.964466885001233</v>
       </c>
       <c r="P5" t="n">
-        <v>343.7952654199261</v>
+        <v>343.992120299761</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11825,7 +11961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21793,6 +21929,134 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-35.45945780084384,174.43318238429293</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-35.460170124599244,174.43344907885051</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-35.460805389092876,174.43389593658563</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-35.4614087508505,174.4344173752743</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.45951136479617,174.4330571442905</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.46020322859551,174.4333716767209</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.460809153737884,174.4338871342871</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-35.46138423571517,174.43447469511725</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-35.45946123198267,174.43317436182505</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-35.46015529878208,174.43348374378667</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-35.46080370663642,174.43389987041766</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-35.4613965559313,174.434445888727</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.45952469806611,174.43302596917061</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.46020971574808,174.43335650876026</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.46079222177966,174.43392672369924</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-35.46140992022597,174.43441464110714</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15128,7 +15128,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-35.46132747910763,174.43460739969407</t>
+          <t>-35.46132747910764,174.43460739969407</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8091,6 +8091,78 @@
         <v>336.26</v>
       </c>
       <c r="F326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>322.16</v>
+      </c>
+      <c r="C327" t="n">
+        <v>319.8233333333333</v>
+      </c>
+      <c r="D327" t="n">
+        <v>321.9485714285714</v>
+      </c>
+      <c r="E327" t="n">
+        <v>334.74</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>333.6473684210526</v>
+      </c>
+      <c r="C328" t="n">
+        <v>324.7566666666667</v>
+      </c>
+      <c r="D328" t="n">
+        <v>331.2742857142857</v>
+      </c>
+      <c r="E328" t="n">
+        <v>351.76</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>331.7868421052632</v>
+      </c>
+      <c r="C329" t="n">
+        <v>327.85</v>
+      </c>
+      <c r="D329" t="n">
+        <v>332.8585714285715</v>
+      </c>
+      <c r="E329" t="n">
+        <v>350.86</v>
+      </c>
+      <c r="F329" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8107,7 +8179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11495,6 +11567,36 @@
       </c>
       <c r="B338" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -11668,28 +11770,28 @@
         <v>0.1038</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1337112210273735</v>
+        <v>0.1403598973133731</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01372059574278939</v>
+        <v>0.0153378600136973</v>
       </c>
       <c r="M2" t="n">
-        <v>6.297971895315857</v>
+        <v>6.291270328178154</v>
       </c>
       <c r="N2" t="n">
-        <v>66.25006390556814</v>
+        <v>65.96422208552023</v>
       </c>
       <c r="O2" t="n">
-        <v>8.13941422373675</v>
+        <v>8.121836127718918</v>
       </c>
       <c r="P2" t="n">
-        <v>322.3564244848886</v>
+        <v>322.2878710706157</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11746,28 +11848,28 @@
         <v>0.0776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1327482213349118</v>
+        <v>0.133165218732445</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01422870262502429</v>
+        <v>0.01459577411250657</v>
       </c>
       <c r="M3" t="n">
-        <v>6.22017728835524</v>
+        <v>6.188593936470902</v>
       </c>
       <c r="N3" t="n">
-        <v>63.58348260967816</v>
+        <v>63.07895524169826</v>
       </c>
       <c r="O3" t="n">
-        <v>7.973925169555967</v>
+        <v>7.942226088553402</v>
       </c>
       <c r="P3" t="n">
-        <v>320.5051208028631</v>
+        <v>320.5007778688744</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11824,28 +11926,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1526858952999312</v>
+        <v>0.1510052851719982</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01992690495646743</v>
+        <v>0.01984213354538378</v>
       </c>
       <c r="M4" t="n">
-        <v>6.008517062683634</v>
+        <v>5.990559529981326</v>
       </c>
       <c r="N4" t="n">
-        <v>60.02092802860716</v>
+        <v>59.66745759384766</v>
       </c>
       <c r="O4" t="n">
-        <v>7.747317473074609</v>
+        <v>7.724471347208666</v>
       </c>
       <c r="P4" t="n">
-        <v>325.6054255629501</v>
+        <v>325.62243993718</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11902,28 +12004,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06134894606495971</v>
+        <v>0.06179611390604153</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K5" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002040088868378587</v>
+        <v>0.002102212076832699</v>
       </c>
       <c r="M5" t="n">
-        <v>7.824281385342451</v>
+        <v>7.820167520829054</v>
       </c>
       <c r="N5" t="n">
-        <v>99.29060030228617</v>
+        <v>98.90031164416739</v>
       </c>
       <c r="O5" t="n">
-        <v>9.964466885001233</v>
+        <v>9.944863580973214</v>
       </c>
       <c r="P5" t="n">
-        <v>343.992120299761</v>
+        <v>343.98747301194</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11961,7 +12063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22057,6 +22159,102 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-35.459514657450775,174.43304944558895</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-35.46017580434637,174.43343579875886</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-35.46081831178611,174.43386572140204</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-35.46141626826318,174.434399798484</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.45946668311824,174.4331616163269</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.46015520133534,174.4334839716313</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.46077936469934,174.43395678541566</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-35.46134518685033,174.4345659966677</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-35.459474453182196,174.43314344884973</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-35.46014228268103,174.43351417731145</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-35.46077274822225,174.43397225568725</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-35.461348945567515,174.4345572082871</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F329"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8163,6 +8163,76 @@
         <v>350.86</v>
       </c>
       <c r="F329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>330.2863157894737</v>
+      </c>
+      <c r="C330" t="n">
+        <v>321.2233333333333</v>
+      </c>
+      <c r="D330" t="n">
+        <v>321.94</v>
+      </c>
+      <c r="E330" t="n">
+        <v>337.27</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>327.2178947368421</v>
+      </c>
+      <c r="C331" t="n">
+        <v>325.0666666666667</v>
+      </c>
+      <c r="D331" t="n">
+        <v>323.8614285714286</v>
+      </c>
+      <c r="E331" t="n">
+        <v>341.02</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>323.6063157894737</v>
+      </c>
+      <c r="C332" t="n">
+        <v>318.2866666666667</v>
+      </c>
+      <c r="D332" t="n">
+        <v>319.0814285714285</v>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8179,7 +8249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11597,6 +11667,36 @@
       </c>
       <c r="B341" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -11770,28 +11870,28 @@
         <v>0.1038</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1403598973133731</v>
+        <v>0.1424733629793091</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0153378600136973</v>
+        <v>0.01610375618738591</v>
       </c>
       <c r="M2" t="n">
-        <v>6.291270328178154</v>
+        <v>6.256157556460946</v>
       </c>
       <c r="N2" t="n">
-        <v>65.96422208552023</v>
+        <v>65.42013635247613</v>
       </c>
       <c r="O2" t="n">
-        <v>8.121836127718918</v>
+        <v>8.088271530585267</v>
       </c>
       <c r="P2" t="n">
-        <v>322.2878710706157</v>
+        <v>322.2660502269958</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11848,28 +11948,28 @@
         <v>0.0776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.133165218732445</v>
+        <v>0.1285280382366624</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01459577411250657</v>
+        <v>0.01386455651377438</v>
       </c>
       <c r="M3" t="n">
-        <v>6.188593936470902</v>
+        <v>6.161998359543444</v>
       </c>
       <c r="N3" t="n">
-        <v>63.07895524169826</v>
+        <v>62.60777688968303</v>
       </c>
       <c r="O3" t="n">
-        <v>7.942226088553402</v>
+        <v>7.912507623357024</v>
       </c>
       <c r="P3" t="n">
-        <v>320.5007778688744</v>
+        <v>320.5484556754053</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11926,28 +12026,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1510052851719982</v>
+        <v>0.1356627966265455</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01984213354538378</v>
+        <v>0.01624667902695809</v>
       </c>
       <c r="M4" t="n">
-        <v>5.990559529981326</v>
+        <v>6.00577517699709</v>
       </c>
       <c r="N4" t="n">
-        <v>59.66745759384766</v>
+        <v>59.71506811249152</v>
       </c>
       <c r="O4" t="n">
-        <v>7.724471347208666</v>
+        <v>7.727552530555293</v>
       </c>
       <c r="P4" t="n">
-        <v>325.62243993718</v>
+        <v>325.7794128990574</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12004,28 +12104,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06179611390604153</v>
+        <v>0.05328968649742605</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K5" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002102212076832699</v>
+        <v>0.001581856636977186</v>
       </c>
       <c r="M5" t="n">
-        <v>7.820167520829054</v>
+        <v>7.812073426912002</v>
       </c>
       <c r="N5" t="n">
-        <v>98.90031164416739</v>
+        <v>98.52940648931991</v>
       </c>
       <c r="O5" t="n">
-        <v>9.944863580973214</v>
+        <v>9.926197987614387</v>
       </c>
       <c r="P5" t="n">
-        <v>343.98747301194</v>
+        <v>344.0734130998918</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12063,7 +12163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F329"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22255,6 +22355,98 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.459480719786285,174.43312879666112</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-35.46016995754785,174.43344946944143</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-35.460818347583036,174.4338656377035</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-35.461405702121326,174.4344245036383</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-35.459493534337845,174.4330988344443</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-35.46015390668605,174.43348699870958</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-35.4608103231045,174.43388440013396</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-35.461390040834786,174.4344611219379</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.459508617253576,174.4330635684402</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.46018222190205,174.43342079355497</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.46083028585402,174.43383772422177</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F332"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8233,6 +8233,30 @@
       </c>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>323.3210526315789</v>
+      </c>
+      <c r="C333" t="n">
+        <v>326.04</v>
+      </c>
+      <c r="D333" t="n">
+        <v>324.8742857142857</v>
+      </c>
+      <c r="E333" t="n">
+        <v>343.88</v>
+      </c>
+      <c r="F333" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8249,7 +8273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11697,6 +11721,16 @@
       </c>
       <c r="B344" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -11870,28 +11904,28 @@
         <v>0.1038</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1424733629793091</v>
+        <v>0.1407726421029471</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01610375618738591</v>
+        <v>0.01582972787636994</v>
       </c>
       <c r="M2" t="n">
-        <v>6.256157556460946</v>
+        <v>6.245200687983097</v>
       </c>
       <c r="N2" t="n">
-        <v>65.42013635247613</v>
+        <v>65.2358350646978</v>
       </c>
       <c r="O2" t="n">
-        <v>8.088271530585267</v>
+        <v>8.076870375628037</v>
       </c>
       <c r="P2" t="n">
-        <v>322.2660502269958</v>
+        <v>322.2837301365175</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11948,28 +11982,28 @@
         <v>0.0776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1285280382366624</v>
+        <v>0.1298885044698213</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01386455651377438</v>
+        <v>0.01424866100606226</v>
       </c>
       <c r="M3" t="n">
-        <v>6.161998359543444</v>
+        <v>6.148652403109785</v>
       </c>
       <c r="N3" t="n">
-        <v>62.60777688968303</v>
+        <v>62.42459895335666</v>
       </c>
       <c r="O3" t="n">
-        <v>7.912507623357024</v>
+        <v>7.900923930361351</v>
       </c>
       <c r="P3" t="n">
-        <v>320.5484556754053</v>
+        <v>320.5344047498944</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12026,28 +12060,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1356627966265455</v>
+        <v>0.1327939190119853</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01624667902695809</v>
+        <v>0.01566926711886008</v>
       </c>
       <c r="M4" t="n">
-        <v>6.00577517699709</v>
+        <v>6.000333245358655</v>
       </c>
       <c r="N4" t="n">
-        <v>59.71506811249152</v>
+        <v>59.58583048058154</v>
       </c>
       <c r="O4" t="n">
-        <v>7.727552530555293</v>
+        <v>7.719185869026703</v>
       </c>
       <c r="P4" t="n">
-        <v>325.7794128990574</v>
+        <v>325.8089063032684</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12104,28 +12138,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05328968649742605</v>
+        <v>0.05224458124730436</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001581856636977186</v>
+        <v>0.001531313722384575</v>
       </c>
       <c r="M5" t="n">
-        <v>7.812073426912002</v>
+        <v>7.791170682062468</v>
       </c>
       <c r="N5" t="n">
-        <v>98.52940648931991</v>
+        <v>98.20490716710874</v>
       </c>
       <c r="O5" t="n">
-        <v>9.926197987614387</v>
+        <v>9.909838907222898</v>
       </c>
       <c r="P5" t="n">
-        <v>344.0734130998918</v>
+        <v>344.0840330881865</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12163,7 +12197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F332"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22447,6 +22481,38 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.459509808588095,174.43306078292895</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.46014984176521,174.43349650308386</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.46080609309942,174.433894290514</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-35.461378096486335,174.43448904948463</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8257,6 +8257,30 @@
         <v>343.88</v>
       </c>
       <c r="F333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>321.5015789473684</v>
+      </c>
+      <c r="C334" t="n">
+        <v>317.5266666666667</v>
+      </c>
+      <c r="D334" t="n">
+        <v>321.35</v>
+      </c>
+      <c r="E334" t="n">
+        <v>333.86</v>
+      </c>
+      <c r="F334" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8273,7 +8297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11731,6 +11755,16 @@
       </c>
       <c r="B345" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -12197,7 +12231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22513,6 +22547,38 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.45951740719067,174.43304301629897</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.46018539587686,174.43341337232528</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.46082081160451,174.43385987645084</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-35.4614199434418,174.4343912053853</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -11938,28 +11938,28 @@
         <v>0.1038</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1407726421029471</v>
+        <v>0.137937980881116</v>
       </c>
       <c r="J2" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K2" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01582972787636994</v>
+        <v>0.01529729276585023</v>
       </c>
       <c r="M2" t="n">
-        <v>6.245200687983097</v>
+        <v>6.240247296461732</v>
       </c>
       <c r="N2" t="n">
-        <v>65.2358350646978</v>
+        <v>65.0925484802932</v>
       </c>
       <c r="O2" t="n">
-        <v>8.076870375628037</v>
+        <v>8.067995319798667</v>
       </c>
       <c r="P2" t="n">
-        <v>322.2837301365175</v>
+        <v>322.3132547589584</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12016,28 +12016,28 @@
         <v>0.0776</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1298885044698213</v>
+        <v>0.1258475542120189</v>
       </c>
       <c r="J3" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K3" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01424866100606226</v>
+        <v>0.01345119150928775</v>
       </c>
       <c r="M3" t="n">
-        <v>6.148652403109785</v>
+        <v>6.151197178242112</v>
       </c>
       <c r="N3" t="n">
-        <v>62.42459895335666</v>
+        <v>62.35577388253118</v>
       </c>
       <c r="O3" t="n">
-        <v>7.900923930361351</v>
+        <v>7.896567221428004</v>
       </c>
       <c r="P3" t="n">
-        <v>320.5344047498944</v>
+        <v>320.5762210552427</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12094,28 +12094,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1327939190119853</v>
+        <v>0.1277053161681635</v>
       </c>
       <c r="J4" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K4" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01566926711886008</v>
+        <v>0.01456062940101122</v>
       </c>
       <c r="M4" t="n">
-        <v>6.000333245358655</v>
+        <v>6.005522165936116</v>
       </c>
       <c r="N4" t="n">
-        <v>59.58583048058154</v>
+        <v>59.59415310257277</v>
       </c>
       <c r="O4" t="n">
-        <v>7.719185869026703</v>
+        <v>7.719724936976237</v>
       </c>
       <c r="P4" t="n">
-        <v>325.8089063032684</v>
+        <v>325.8613217826895</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12172,28 +12172,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05224458124730436</v>
+        <v>0.04464029506017347</v>
       </c>
       <c r="J5" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K5" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001531313722384575</v>
+        <v>0.001121324252338685</v>
       </c>
       <c r="M5" t="n">
-        <v>7.791170682062468</v>
+        <v>7.804931255482013</v>
       </c>
       <c r="N5" t="n">
-        <v>98.20490716710874</v>
+        <v>98.32165616177736</v>
       </c>
       <c r="O5" t="n">
-        <v>9.909838907222898</v>
+        <v>9.915727717206506</v>
       </c>
       <c r="P5" t="n">
-        <v>344.0840330881865</v>
+        <v>344.1614624553073</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -11929,13 +11929,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.095</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1038</v>
+        <v>0.1054</v>
       </c>
       <c r="I2" t="n">
         <v>0.1379212155082331</v>
@@ -12007,13 +12007,13 @@
         <v>0.3333333333361399</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0687</v>
+        <v>0.0708</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0776</v>
+        <v>0.101</v>
       </c>
       <c r="I3" t="n">
         <v>0.1258694674233493</v>
@@ -12085,13 +12085,13 @@
         <v>0.6666666666666239</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0645</v>
+        <v>0.0829</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07290000000000001</v>
+        <v>0.1039</v>
       </c>
       <c r="I4" t="n">
         <v>0.1277464361670771</v>
@@ -12163,13 +12163,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0483</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0534</v>
+        <v>0.1021</v>
       </c>
       <c r="I5" t="n">
         <v>0.0446402950601737</v>

--- a/data/nzd0080/nzd0080.xlsx
+++ b/data/nzd0080/nzd0080.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8481,6 +8481,30 @@
       <c r="F335" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>324.97</v>
+      </c>
+      <c r="C336" t="n">
+        <v>321.41</v>
+      </c>
+      <c r="D336" t="n">
+        <v>325.35</v>
+      </c>
+      <c r="E336" t="n">
+        <v>342.59</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11973,6 +11997,16 @@
       </c>
       <c r="B347" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -12140,34 +12174,34 @@
         <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0815</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1055</v>
+        <v>0.1052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.144232919150899</v>
+        <v>0.1436294022047174</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07084260245915319</v>
+        <v>0.07070636171985434</v>
       </c>
       <c r="M2" t="n">
-        <v>2.971121949009087</v>
+        <v>2.96498467152642</v>
       </c>
       <c r="N2" t="n">
-        <v>14.58429647451091</v>
+        <v>14.54374809864081</v>
       </c>
       <c r="O2" t="n">
-        <v>3.818939181829282</v>
+        <v>3.813626633355815</v>
       </c>
       <c r="P2" t="n">
-        <v>322.191946543998</v>
+        <v>322.1982569881118</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12218,34 +12252,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0706</v>
+        <v>0.0704</v>
       </c>
       <c r="H3" t="n">
-        <v>0.101</v>
+        <v>0.1006</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1418754283733813</v>
+        <v>0.1404576058371391</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05261556555152391</v>
+        <v>0.05190136296369741</v>
       </c>
       <c r="M3" t="n">
-        <v>3.3329878606209</v>
+        <v>3.329578361813414</v>
       </c>
       <c r="N3" t="n">
-        <v>19.37261686015427</v>
+        <v>19.33127267688766</v>
       </c>
       <c r="O3" t="n">
-        <v>4.401433500594353</v>
+        <v>4.39673431957034</v>
       </c>
       <c r="P3" t="n">
-        <v>320.0548525474538</v>
+        <v>320.0696774665134</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12296,34 +12330,34 @@
         <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0829</v>
+        <v>0.0828</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1039</v>
+        <v>0.1036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.149012743149656</v>
+        <v>0.1468183254340222</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06620535193294463</v>
+        <v>0.06464531390991346</v>
       </c>
       <c r="M4" t="n">
-        <v>3.138339589823162</v>
+        <v>3.137889292831383</v>
       </c>
       <c r="N4" t="n">
-        <v>16.74044571172574</v>
+        <v>16.72996278830146</v>
       </c>
       <c r="O4" t="n">
-        <v>4.09150897734879</v>
+        <v>4.090227718391906</v>
       </c>
       <c r="P4" t="n">
-        <v>325.1001928735749</v>
+        <v>325.1231379630947</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12374,34 +12408,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0703</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1021</v>
+        <v>0.1019</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08095185301674032</v>
+        <v>0.07970070808337763</v>
       </c>
       <c r="J5" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02212249049108816</v>
+        <v>0.02157828969959563</v>
       </c>
       <c r="M5" t="n">
-        <v>2.964391315371589</v>
+        <v>2.962248897108251</v>
       </c>
       <c r="N5" t="n">
-        <v>15.4833861463957</v>
+        <v>15.45000362089606</v>
       </c>
       <c r="O5" t="n">
-        <v>3.934893409788339</v>
+        <v>3.930649262004442</v>
       </c>
       <c r="P5" t="n">
-        <v>342.5503082762315</v>
+        <v>342.5633903946877</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12439,7 +12473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23167,6 +23201,38 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.459502922146235,174.4330768844162</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.46016917797459,174.43345129219895</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.46080410636899,174.43389893578382</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-35.46138348397296,174.434476452795</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
